--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H2">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I2">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J2">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>2634.702139341456</v>
+        <v>3668.940285240197</v>
       </c>
       <c r="R2">
-        <v>10538.80855736582</v>
+        <v>14675.76114096079</v>
       </c>
       <c r="S2">
-        <v>0.2110397413300569</v>
+        <v>0.4984695803249098</v>
       </c>
       <c r="T2">
-        <v>0.1415821933169593</v>
+        <v>0.4209700246971831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H3">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I3">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J3">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>165.7265086726973</v>
+        <v>209.5474696935533</v>
       </c>
       <c r="R3">
-        <v>994.3590520361842</v>
+        <v>1257.28481816132</v>
       </c>
       <c r="S3">
-        <v>0.01327469963286303</v>
+        <v>0.02846953920086873</v>
       </c>
       <c r="T3">
-        <v>0.01335858173772958</v>
+        <v>0.03606485659374213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H4">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I4">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J4">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>492.9707615904034</v>
+        <v>704.726656337091</v>
       </c>
       <c r="R4">
-        <v>2957.82456954242</v>
+        <v>4228.359938022545</v>
       </c>
       <c r="S4">
-        <v>0.03948697670823761</v>
+        <v>0.09574557592046742</v>
       </c>
       <c r="T4">
-        <v>0.0397364927660551</v>
+        <v>0.1212892994401377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H5">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I5">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J5">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>1247.732540457894</v>
+        <v>1001.190966664931</v>
       </c>
       <c r="R5">
-        <v>4990.930161831576</v>
+        <v>4004.763866659725</v>
       </c>
       <c r="S5">
-        <v>0.09994342383353658</v>
+        <v>0.1360238112858483</v>
       </c>
       <c r="T5">
-        <v>0.06704997392803026</v>
+        <v>0.1148755098738109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H6">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I6">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J6">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>1759.89053239591</v>
+        <v>1254.749013772854</v>
       </c>
       <c r="R6">
-        <v>10559.34319437546</v>
+        <v>7528.494082637126</v>
       </c>
       <c r="S6">
-        <v>0.1409672984206413</v>
+        <v>0.1704727157388178</v>
       </c>
       <c r="T6">
-        <v>0.1418580631110604</v>
+        <v>0.215952706606457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H7">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I7">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J7">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>478.6961896415527</v>
+        <v>441.94666478833</v>
       </c>
       <c r="R7">
-        <v>2872.177137849316</v>
+        <v>2651.67998872998</v>
       </c>
       <c r="S7">
-        <v>0.03834358295351294</v>
+        <v>0.06004375961344111</v>
       </c>
       <c r="T7">
-        <v>0.03858587396839235</v>
+        <v>0.07606268456012807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.049831</v>
       </c>
       <c r="I8">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J8">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>1.114111133152</v>
+        <v>1.227007432845667</v>
       </c>
       <c r="R8">
-        <v>6.684666798912</v>
+        <v>7.362044597074</v>
       </c>
       <c r="S8">
-        <v>8.924034403832206E-05</v>
+        <v>0.0001667036889552654</v>
       </c>
       <c r="T8">
-        <v>8.980424891782816E-05</v>
+        <v>0.0002111781505629702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.049831</v>
       </c>
       <c r="I9">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J9">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
         <v>0.07007917351022223</v>
@@ -1013,10 +1013,10 @@
         <v>0.6307125615920001</v>
       </c>
       <c r="S9">
-        <v>5.61334445719094E-06</v>
+        <v>9.521096963525551E-06</v>
       </c>
       <c r="T9">
-        <v>8.473222313194109E-06</v>
+        <v>1.809181003151878E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.049831</v>
       </c>
       <c r="I10">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J10">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>0.2084578008288889</v>
+        <v>0.2356824527585556</v>
       </c>
       <c r="R10">
-        <v>1.87612020746</v>
+        <v>2.121142074827</v>
       </c>
       <c r="S10">
-        <v>1.669747775593231E-05</v>
+        <v>3.202029037897286E-05</v>
       </c>
       <c r="T10">
-        <v>2.520448231435076E-05</v>
+        <v>6.084435574069979E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.049831</v>
       </c>
       <c r="I11">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J11">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>0.5276166492458334</v>
+        <v>0.3348293137225001</v>
       </c>
       <c r="R11">
-        <v>3.165699895475</v>
+        <v>2.008975882335</v>
       </c>
       <c r="S11">
-        <v>4.226211362401045E-05</v>
+        <v>4.549058161648588E-05</v>
       </c>
       <c r="T11">
-        <v>4.252916562103757E-05</v>
+        <v>5.762690048437535E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.049831</v>
       </c>
       <c r="I12">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J12">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>0.744187969483778</v>
+        <v>0.4196269894194445</v>
       </c>
       <c r="R12">
-        <v>6.697691725354001</v>
+        <v>3.776642904775001</v>
       </c>
       <c r="S12">
-        <v>5.960948459246033E-05</v>
+        <v>5.701136378544845E-05</v>
       </c>
       <c r="T12">
-        <v>8.997923052446922E-05</v>
+        <v>0.0001083319251127774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.049831</v>
       </c>
       <c r="I13">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J13">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>0.2024216499897778</v>
+        <v>0.1478006727986667</v>
       </c>
       <c r="R13">
-        <v>1.821794849908</v>
+        <v>1.330206055188</v>
       </c>
       <c r="S13">
-        <v>1.621398184468915E-05</v>
+        <v>2.008049562378403E-05</v>
       </c>
       <c r="T13">
-        <v>2.447465567094291E-05</v>
+        <v>3.815658149013553E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H14">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I14">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J14">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>1.226973267168</v>
+        <v>3.554458147610333</v>
       </c>
       <c r="R14">
-        <v>7.361839603007999</v>
+        <v>21.326748885662</v>
       </c>
       <c r="S14">
-        <v>9.828060525534457E-05</v>
+        <v>0.0004829158076650965</v>
       </c>
       <c r="T14">
-        <v>9.890163505371135E-05</v>
+        <v>0.0006117517121514006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H15">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I15">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J15">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>0.07717836212533334</v>
+        <v>0.2030089489217778</v>
       </c>
       <c r="R15">
-        <v>0.694605259128</v>
+        <v>1.827080540296</v>
       </c>
       <c r="S15">
-        <v>6.181989734626669E-06</v>
+        <v>2.758120266452217E-05</v>
       </c>
       <c r="T15">
-        <v>9.331580087210359E-06</v>
+        <v>5.240928445104112E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H16">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I16">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J16">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>0.2295750767933333</v>
+        <v>0.6827370332334446</v>
       </c>
       <c r="R16">
-        <v>2.06617569114</v>
+        <v>6.144633299101001</v>
       </c>
       <c r="S16">
-        <v>1.838897236193954E-05</v>
+        <v>9.27580216547103E-05</v>
       </c>
       <c r="T16">
-        <v>2.775775691696444E-05</v>
+        <v>0.0001762570545290529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H17">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I17">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J17">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>0.5810654832125001</v>
+        <v>0.9699507520175001</v>
       </c>
       <c r="R17">
-        <v>3.486392899275</v>
+        <v>5.819704512105001</v>
       </c>
       <c r="S17">
-        <v>4.65433672527557E-05</v>
+        <v>0.0001317794531132144</v>
       </c>
       <c r="T17">
-        <v>4.683747225857238E-05</v>
+        <v>0.0001669365649017888</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H18">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I18">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J18">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>0.8195759984206669</v>
+        <v>1.215597013980556</v>
       </c>
       <c r="R18">
-        <v>7.376183985786001</v>
+        <v>10.940373125825</v>
       </c>
       <c r="S18">
-        <v>6.564806857076177E-05</v>
+        <v>0.0001651534465798567</v>
       </c>
       <c r="T18">
-        <v>9.909434271743184E-05</v>
+        <v>0.0003138214843331412</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H19">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I19">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J19">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>0.2229274493746667</v>
+        <v>0.4281565796493333</v>
       </c>
       <c r="R19">
-        <v>2.006347044372</v>
+        <v>3.853409216844</v>
       </c>
       <c r="S19">
-        <v>1.785649715347265E-05</v>
+        <v>5.817021100881169E-05</v>
       </c>
       <c r="T19">
-        <v>2.695399708144882E-05</v>
+        <v>0.0001105339448906411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H20">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I20">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J20">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>3.055795937184</v>
+        <v>9.7724637761475</v>
       </c>
       <c r="R20">
-        <v>12.223183748736</v>
+        <v>39.08985510459</v>
       </c>
       <c r="S20">
-        <v>0.000244769370514855</v>
+        <v>0.00132770651428515</v>
       </c>
       <c r="T20">
-        <v>0.000164210703234827</v>
+        <v>0.001121281350298077</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H21">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I21">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J21">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>0.1922139069626667</v>
+        <v>0.5581434686200001</v>
       </c>
       <c r="R21">
-        <v>1.153283441776</v>
+        <v>3.34886081172</v>
       </c>
       <c r="S21">
-        <v>1.539634124090397E-05</v>
+        <v>7.583049025991074E-05</v>
       </c>
       <c r="T21">
-        <v>1.549362988367925E-05</v>
+        <v>9.606111772168722E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H22">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I22">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J22">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>0.5717602866466666</v>
+        <v>1.8770858029075</v>
       </c>
       <c r="R22">
-        <v>3.43056171988</v>
+        <v>11.262514817445</v>
       </c>
       <c r="S22">
-        <v>4.57980206547643E-05</v>
+        <v>0.0002550246391780378</v>
       </c>
       <c r="T22">
-        <v>4.608741585597344E-05</v>
+        <v>0.0003230620269240644</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H23">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I23">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J23">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>1.4471525911375</v>
+        <v>2.666737993556251</v>
       </c>
       <c r="R23">
-        <v>5.788610364549999</v>
+        <v>10.666951974225</v>
       </c>
       <c r="S23">
-        <v>0.0001159169774595909</v>
+        <v>0.000362308368395113</v>
       </c>
       <c r="T23">
-        <v>7.776630035635849E-05</v>
+        <v>0.0003059784765438874</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H24">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I24">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J24">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>2.041166725635334</v>
+        <v>3.3421065299375</v>
       </c>
       <c r="R24">
-        <v>12.247000353812</v>
+        <v>20.052639179625</v>
       </c>
       <c r="S24">
-        <v>0.000163497532171614</v>
+        <v>0.0004540652912997796</v>
       </c>
       <c r="T24">
-        <v>0.000164530664183512</v>
+        <v>0.0005752042384452292</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H25">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I25">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J25">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>0.5552042675373332</v>
+        <v>1.17715401093</v>
       </c>
       <c r="R25">
-        <v>3.331225605223999</v>
+        <v>7.06292406558</v>
       </c>
       <c r="S25">
-        <v>4.447188289591977E-05</v>
+        <v>0.0001599305031391773</v>
       </c>
       <c r="T25">
-        <v>4.475289830476964E-05</v>
+        <v>0.0002025979633876003</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H26">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I26">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J26">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>2195.563881804928</v>
+        <v>20.840314099367</v>
       </c>
       <c r="R26">
-        <v>13173.38329082957</v>
+        <v>125.041884596202</v>
       </c>
       <c r="S26">
-        <v>0.1758647502391076</v>
+        <v>0.002831406841027578</v>
       </c>
       <c r="T26">
-        <v>0.1769760300292255</v>
+        <v>0.003586790813849354</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H27">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I27">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J27">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>138.1040882254542</v>
+        <v>1.190271508290667</v>
       </c>
       <c r="R27">
-        <v>1242.936794029088</v>
+        <v>10.712443574616</v>
       </c>
       <c r="S27">
-        <v>0.01106214270695819</v>
+        <v>0.000161712672620264</v>
       </c>
       <c r="T27">
-        <v>0.01669806567745202</v>
+        <v>0.0003072833901327753</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H28">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I28">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J28">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>410.8049949070489</v>
+        <v>4.002988255585668</v>
       </c>
       <c r="R28">
-        <v>3697.24495416344</v>
+        <v>36.026894300271</v>
       </c>
       <c r="S28">
-        <v>0.03290549567927578</v>
+        <v>0.0005438540070642492</v>
       </c>
       <c r="T28">
-        <v>0.04967013557473333</v>
+        <v>0.001033421192786938</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H29">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I29">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J29">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>1039.767060980483</v>
+        <v>5.686964789992501</v>
       </c>
       <c r="R29">
-        <v>6238.6023658829</v>
+        <v>34.121788739955</v>
       </c>
       <c r="S29">
-        <v>0.08328538103653789</v>
+        <v>0.0007726424340003982</v>
       </c>
       <c r="T29">
-        <v>0.08381165682877219</v>
+        <v>0.0009787737828792795</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H30">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I30">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J30">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>1466.561259871562</v>
+        <v>7.127225174008334</v>
       </c>
       <c r="R30">
-        <v>13199.05133884406</v>
+        <v>64.145026566075</v>
       </c>
       <c r="S30">
-        <v>0.1174716125616147</v>
+        <v>0.0009683190962963517</v>
       </c>
       <c r="T30">
-        <v>0.1773208639368038</v>
+        <v>0.001839981801172476</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H31">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I31">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J31">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>398.9096333285457</v>
+        <v>2.510345384036</v>
       </c>
       <c r="R31">
-        <v>3590.186699956912</v>
+        <v>22.593108456324</v>
       </c>
       <c r="S31">
-        <v>0.03195267676549061</v>
+        <v>0.0003410605550286512</v>
       </c>
       <c r="T31">
-        <v>0.04823187598772803</v>
+        <v>0.0006480768754336774</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H32">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I32">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J32">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N32">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O32">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P32">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q32">
-        <v>15.961026488672</v>
+        <v>4.569261328960667</v>
       </c>
       <c r="R32">
-        <v>95.76615893203198</v>
+        <v>27.415567973764</v>
       </c>
       <c r="S32">
-        <v>0.001278478827353691</v>
+        <v>0.0006207890017192666</v>
       </c>
       <c r="T32">
-        <v>0.001286557465517394</v>
+        <v>0.0007864077519489501</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H33">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I33">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J33">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P33">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q33">
-        <v>1.003971247945778</v>
+        <v>0.2609683111235556</v>
       </c>
       <c r="R33">
-        <v>9.035741231512</v>
+        <v>2.348714800112</v>
       </c>
       <c r="S33">
-        <v>8.041813505425332E-05</v>
+        <v>3.545567777354624E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001213894393126458</v>
+        <v>6.737221449115638E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H34">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I34">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J34">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N34">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O34">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P34">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q34">
-        <v>2.986417047451111</v>
+        <v>0.8776594896468891</v>
       </c>
       <c r="R34">
-        <v>26.87775342706</v>
+        <v>7.898935406822001</v>
       </c>
       <c r="S34">
-        <v>0.0002392121188147995</v>
+        <v>0.000119240577240362</v>
       </c>
       <c r="T34">
-        <v>0.0003610855307714912</v>
+        <v>0.0002265787103886877</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H35">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I35">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J35">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N35">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O35">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P35">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q35">
-        <v>7.558764169829167</v>
+        <v>1.246873159885</v>
       </c>
       <c r="R35">
-        <v>45.352585018975</v>
+        <v>7.481238959310001</v>
       </c>
       <c r="S35">
-        <v>0.0006054572968063744</v>
+        <v>0.0001694026864450808</v>
       </c>
       <c r="T35">
-        <v>0.0006092831485293919</v>
+        <v>0.0002145972068648752</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H36">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I36">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J36">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N36">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O36">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P36">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q36">
-        <v>10.66141746548822</v>
+        <v>1.562651801461111</v>
       </c>
       <c r="R36">
-        <v>95.95275718939401</v>
+        <v>14.06386621315</v>
       </c>
       <c r="S36">
-        <v>0.0008539799435129958</v>
+        <v>0.0002123050055630135</v>
       </c>
       <c r="T36">
-        <v>0.001289064294482227</v>
+        <v>0.0004034179931263201</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H37">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I37">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J37">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N37">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O37">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P37">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q37">
-        <v>2.899941685554222</v>
+        <v>0.5503959312186667</v>
       </c>
       <c r="R37">
-        <v>26.09947516998799</v>
+        <v>4.953563380968</v>
       </c>
       <c r="S37">
-        <v>0.0002322854390457141</v>
+        <v>7.47778943012002E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003506298571488653</v>
+        <v>0.0001420915534666872</v>
       </c>
     </row>
   </sheetData>
